--- a/ECC_DCC.xlsx
+++ b/ECC_DCC.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\سطح المكتب\التدريب\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19DBB4A0-B0A0-4DEA-AE54-D0DEA6A81CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A9462C5D-449F-4D9A-A1EE-48771100DAD2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="1392">
   <si>
     <t>id</t>
   </si>
@@ -4016,17 +4015,432 @@
   </si>
   <si>
     <t>333</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>OSMACC-1:2021</t>
+  </si>
+  <si>
+    <t>جوعــاً للضابــط 1 1-3- يف الضوابــط األساســية لألمــن الســيرباين، يجــب أن تشــمل سياســات
+وإجــراءات األمــن الســيرباين مــا يــأيت:
+1-1-1-1 تحديــد وتوثيــق متطلبــات وضوابــط األمــن الســيرباين لحســابات التواصــل
+االجتامعــي ضمــن سياســات األمــن الســيرباين للجهــة.</t>
+  </si>
+  <si>
+    <t>Referring to control 1-3-1 in the ECC, cybersecurity policies and procedures must include
+the following:
+1-1-1-1 Defining and documenting the cybersecurity requirements for organizations’ social media accounts as part of the organization’s cybersecurity
+policies.</t>
+  </si>
+  <si>
+    <t>5-3-4-2</t>
+  </si>
+  <si>
+    <t>باإلضافـة للضوابـط ضمـن املكـون الفرعـي 1 - 5 يف الضوابـط األساسـية لألمـن السـيرباين، يجـب أن
+تشـمل منهجيـة إدارة مخاطـر األمـن السـيرباين بحـد أدىن مـا يـأيت:
+1-1-2-1 تقييــم مخاطــر األمــن الســيرباين لحســابات التواصــل االجتامعــي، مــرة واحــدة
+ســنويا،ً عــى األقــل.
+2-1-2-1 تقييـم مخاطـر األمـن السـيرباين عنـد التخطيـط وقبـل السـاح باسـتخدام شـبكات
+التواصــل االجتامعي.
+3-1-2-1 تضمــن مخاطــر األمــن الســيرباين الخاصــة بحســابات التواصــل االجتامعــي
+والخدمــات واألنظمــة املســتخدمة يف ذلــك يف ســجل مخاطــر األمــن الســيرباين
+الخــاص بالجهــة، ومتابعتــه مــرة واحــدة ســنويا، عــى األقــل.</t>
+  </si>
+  <si>
+    <t>In addition to the controls within subdomain 1-5 in the ECC, requirements for cybersecurity risk management should include at least the following:
+1-2-1-1 Assessing cybersecurity risks for organization’s social media accounts,
+once per year at least.
+1-2-1-2 Assessing cybersecurity risks during planning and before permitting use
+of organization’s social media accounts.
+1-2-1-3 Including cybersecurity risks related to organization’s social media
+accounts in the organization’s cybersecurity risk register, and monitoring
+it at least once a year.</t>
+  </si>
+  <si>
+    <t>In addition to the subcontrols within control 1-9-4 in the ECC, the cybersecurity requirements for personnel responsible for managing the organization’s social media accounts
+should include at least the following:
+1-3-1-1 Cybersecurity awareness about social media accounts.
+1-3-1-2 Implementation of and compliance with the cybersecurity requirements
+as per the organizational cybersecurity policies and procedures for the
+organization’s social media accounts</t>
+  </si>
+  <si>
+    <t>In addition to the subcontrols within control 1-10-3 in the ECC, the cybersecurity awareness program must cover the awareness about the potential cyber risks and threats related
+to the organization’s social media accounts and the secure use to minimize these risks and
+threats, including the following:
+1-4-1-1 Secure use and protection of devices dedicated to the organization’s social
+media accounts and ensuring that they do not contain classified data or
+used for personal purposes.
+1-4-1-2 Secure handling of identities, passwords and security questions.
+1-4-1-3 Organization’s social media accounts restoration plan and dealing with
+cybersecurity incidents.
+1-4-1-4 Secure handling of applications and solutions used for the organization’s
+social media accounts.
+1-4-1-5 Not to use the organization’s social media accounts for personal purposes
+such as browsing.
+1-4-1-6 Avoiding accessing the organization’s social media accounts using
+untrusted public devices or networks.
+1-4-1-7 Communicating directly with the cybersecurity department if a
+cybersecurity threat is suspected</t>
+  </si>
+  <si>
+    <t>باإلضافـة للضوابـط الفرعيـة ضمـن الضابـط 1 - -10 3 يف الضوابـط األساسـية لألمـن السـيرباين، فإنه
+يجـب أن يغطـي برنامـج التوعيـة باألمـن السـيرباين املخاطـر والتهديـدات السـيربانية لحسـابات
+التواصـل االجتامعـي واالسـتخدام اآلمـن للحـد مـن هـذه املخاطـر والتهديـدات، مبـا يف ذلـك:
+1-1-4-1 االسـتخدام اآلمـن لألجهـزة املخصصـة لحسـابات التواصـل االجتامعـي واملحافظـة
+عليهـا وحاميتهـا. وعـدم احتوائهـا عـى بيانـات مصنفـة أو اسـتخدامها ألغـراض
+شـخصية.
+2-1-4-1 التعامل اآلمن مع هويات الدخول وكلامت املرور واألسئلة األمنية.
+3-1-4-1 خطة استعادة حسابات التواصل االجتامعي والتعامل مع الحوادث السيربانية.
+4-1-4-1 التعامــل اآلمــن مــع التطبيقــات والحلــول املســتخدمة لحســابات التواصــل
+االجتامعــي.
+5-1-4-1 عـدم اسـتخدام حسـابات التواصـل االجتامعـي الرسـمية ألغـراض شـخصية مثـل
+التصفـح.
+6-1-4-1 تجنــب الدخــول لحســابات التواصــل االجتامعــي باســتخدام أجهــزة أو شــبكات
+عامـة غـر موثوقـة.
+7-1-4-1 التواصــل مبــارشة مــع اإلدارة املعنيــة باألمــن الســيرباين يف الجهــة حــال االشــتباه
+بتهديـد أمـن سـيرباي</t>
+  </si>
+  <si>
+    <t>باإلضافـة للضوابـط الفرعيـة ضمـن الضابـط 1 - 10 - 4 يف الضوابـط األساسـية لألمـن السـيرباين،
+فإنـه يجـب تدريـب العاملـن املسـؤولني عـن إدارة حسـابات التواصـل االجتامعـي للجهـة عـى
+املهــارات التقنيــة والخطــط واإلجــراءات الالزمــة لضــان تطبيــق متطلبــات ومامرســات األمــن
+الســيرباين عنــد اســتخدام حســابات التواصــل االجتامعــي.</t>
+  </si>
+  <si>
+    <t>باإلضافـة للضوابـط ضمـن املكـون الفرعـي 1-2 يف الضوابـط األساسـية لألمـن السـيرباين، يجـب أن
+تشـمل متطلبـات األمـن السـيرباين إلدارة األصـول املعلوماتيـة والتقنيـة، بحـد أدىن، مايـي:
+1-1-1-2 يجــب تحديــد وحــر حســابات التواصــل االجتامعــي واألصــول املعلوماتيــة
+والتقنيــة املتعلقــة بهــا، وتحديثهــا مــرة واحــدة، كل ســنة؛ عــى األقــل</t>
+  </si>
+  <si>
+    <t>باإلضافـة للضوابـط الفرعيـة ضمـن الضابـط 3-2-2 يف الضوابـط األساسـية لألمـن السـيرباين، يجـب
+أن تغطـي متطلبـات األمـن السـيرباين املتعلقـة بـإدارة هويـات الدخـول، والصالحيـات لحسـابات
+التواصـل االجتامعـي للجهـة، بحـد أدىن، مايـي:
+1-1-2-2 استخدام حسابات التواصل االجتامعي املخصصة للجهات، وليس األفراد.
+2-1-2-2 التسـجيل باسـتخدام معلومـات رسـمية )بريـد إلكـروين رسـمي خـاص لوسـائل
+التواصـل االجتامعـي ورقـم جـوال رسـمي(، وعـدم اسـتخدام معلومات شـخصية.
+3-1-2-2 توثيــق حســابات التواصــل االجتامعــي واملحافظــة عــى هويــة متســقة يف
+جميـع حسـابات التواصـل االجتامعـي املسـتخدمة؛ لتسـهيل معرفـة الحسـابات
+الرســمية، واكتشــاف حســابات االحتيــال.
+4-1-2-2 اســتخدام كلمــة مــرور آمنــة وخاصــة لــكل حســابات التواصــل االجتامعــي.
+وتغيــر كلمــة املــرور بشــكل دوري، وعــدم إعــادة اســتخدام كلمــة مــرور تــم
+اســتخدامها مــن قبــل.
+5-1-2-2 اســتخدام التحقــق مــن الهويــة متعــدد العنــارص )Factor-Multi
+Authentication )لعمليــات الدخــول لحســابات التواصــل االجتامعــي.
+6-1-2-2 تفعيل وتحديث األسئلة األمنية وتوثيقها يف مكان آمن. 2 إدارة صالحيــات املســتخدمني ً لحســابات التواصــل االجتامعــي بنــاء عــى
+احتياجــات العمــل، مــع مراعــاة حساســية الحســابات ومســتوى الصالحيــات،
+ونوعيــة األجهــزة واألنظمــة املســتخدمة.
+8-1-2-2 حـر صالحيـات مقدمـي خدمـة إدارة حسـابات التواصـل االجتامعـي أو املراقبة
+اآلليـة لحسـابات التواصـل االجتامعـي أو حاميـة هويـة الجهـة مـن االنتحال.
+9-1-2-2 حــر إمكانيــة الدخــول لحســابات التواصــل االجتامعــي للجهــة مــن أجهــزة
+محــددة.</t>
+  </si>
+  <si>
+    <t>In addition to the subcontrols within control 2-2-3 in the ECC, cybersecurity requirements for identity and access management related to organization’s social media accounts
+shall include at least the following:
+2-2-1-1 Using social media accounts designated for organizations, not individuals.
+2-2-1-2 Registering using official information (official specific social media email
+and official mobile number), and do not use personal information.
+2-2-1-3 Verifying organization’s social media accounts whenever possible and
+maintaining a consistent identity across all organization’s social media
+accounts used; to facilitate knowledge of official accounts, and to discover
+fraud or unofficial accounts.
+2-2-1-4 Using a secure and specific password for each organization’s social media
+account, changing the password regularly, and not to repeate use of
+passwords.
+2-2-1-5 Using multi-factor authentication for organization’s social media accounts
+logins.
+2-2-1-6 Activating and updating security questions and documenting them in a
+safe place.  2-2-1-7 Managing organization’s social media accounts access rights based on
+business need, considering the sensitivity of the accounts, the level of
+access rights and the type of devices and systems used.
+2-2-1-8 Restricting access rights of service providers of social media management, social media monitoring or brand protection.
+2-2-1-9 Restricting access to organization’s social media accounts to specific
+devices.</t>
+  </si>
+  <si>
+    <t>With reference to ECC subcontrol 2-2-3-5, user identities and access rights used for organization’s social media accounts must be reviewed at least once every year.</t>
+  </si>
+  <si>
+    <t>In addition to the subcontrols in ECC control 2-3-3, cybersecurity requirements for protecting organization’s social media accounts and technology assets related to them must include
+at least the following:
+2-3-1-1 Applying updates and security patches for social media applications at
+least once a month.
+2-3-1-2 Reviewing configurations and hardening of organization’s social media
+accounts and technology assets related to them at least once a year.
+2-3-1-3 Reviewing and hardening default configurations, such as default pass- words, pre-login, and lockout, for organization’s social media accounts
+and technology assets related to them.
+2-3-1-4 Restricting activiation of features and services in social media accounts
+on need basis and carrying out risk assessment if there is a need to activ- iate it.</t>
+  </si>
+  <si>
+    <t>رجوعـاً للضابـط الفرعـي 5-3-2-2 يف الضوابـط األساسـية لألمـن السـيرباين، يجـب مراجعـة هويات الدخـول والصالحيـات املسـتخدمة لحسـابات التواصـل االجتامعـي للجهـة، بحـد أدىن مـرة واحـدة كل سـنة.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اإلضافـة للضوابـط الفرعيـة ضمـن الضابـط 3-3-2 يف الضوابـط األساسـية لألمـن السـيرباين، يجـب
+أن تغطـي متطلبـات األمـن السـيرباين لحاميـة حسـابات التواصـل االجتامعـي للجهـة، واألصـول
+التقنيـة الخاصـة بهـا، بحـد أدىن، مايـي:
+1-1-3-2 تطبيـق حـزم التحديثـات، واإلصالحـات األمنيـة لتطبيقـات التواصـل االجتامعـي،
+مـرة واحـدة شـهرياً عـى األقـل.
+2-1-3-2 مراجعـة إعـدادات الحاميـة والتحصـن لحسـابات التواصـل االجتامعـي للجهـة
+واألصــول التقنيــة الخاصــة بهــا )Hardening and Configuration Secure)،
+مـرة واحـدة كل سـنة عـى األقـل.
+3-1-3-2 مراجعـة وتحصـن اإلعـدادات املصنعيـة )Configuration Default )لحسـابات
+التواصــل االجتامعــي واألصــول التقنيــة، ومنهــا وجــود كلــات مــرور ثابتــة أو
+تسـجيل الدخـول املسـبق، وإقفـال األجهـزة )Lockout).
+4-1-3-2 تقييـد تفعيـل الخصائـص والخدمـات يف حسـابات التواصـل االجتامعـي حسـب
+الحاجــة، عــى أن يتــم تحليــل املخاطــر الســيربانية املحتملــة يف حــال الحاجــة
+لتفعيلهـا.
+</t>
+  </si>
+  <si>
+    <t>باإلضافـة للضوابـط الفرعيـة ضمـن الضابـط 3-6-2 يف الضوابـط األساسـية لألمـن السـيرباين، يجـب
+أن تغطــي متطلبــات األمــن الســيرباين الخاصــة بأمــن األجهــزة املحمولــة لحســابات التواصــل
+االجتامعـي للجهـة، بحـد أدىن، مايـي:
+1-1-4-2 إدارة األجهــزة املحمولــة مركزيــاً باســتخدام نظــام إدارة األجهــزة املحمولــة
+)MDM - Management Device Mobile).
+2-1-4-2 تطبيـق حـزم التحديثـات، واإلصالحـات األمنيـة لألجهـزة املحمولـة، مـرة واحـدة
+شـهريا،ً عـى األقـل.</t>
+  </si>
+  <si>
+    <t>In addition to the subcontrols within control 2-6-3 in the ECC, cybersecurity requirements for mobile device security related to organization’s social media accounts must
+include at least the following:
+2-4-1-1 Centrally manage mobile devices for organization’s social media accounts
+using a Mobile Device Management system (MDM).
+2-4-1-2 Applying updates and security patches on mobile devices, at least once
+every month.</t>
+  </si>
+  <si>
+    <t>باإلضافـة للضوابـط الفرعيــة ضمــن الضابــط 1 – 9 – 4 يف الضوابـط األساسـية لألمـن السـيرباين،
+يجـب أن تشـمل متطلبـات األمـن السـيرباين املتعلقـة بالعاملـن املسـؤولني عـن إدارة حسـابات
+التواصـل االجتامعـي للجهـة بحـد أدىن مـا يـأيت:
+1-1-3-1 التوعية باألمن السيرباين لحسابات التواصل االجتامعي.
+2-1-3-1 تطبيـق متطلبـات األمــن السـيرباين وااللـتــزام بهـا وفقـاً لسياسـات وإجــــراءات
+وعمليــات األمــن الســيرباين لحســابات التواصــل االجتامعــي.</t>
+  </si>
+  <si>
+    <t>In addition to the subcontrols within control 1-10-4 in the ECC, personnel responsible for
+managing the organization’s social media accounts must be trained on the required technical skills, plans and procedures necessary to ensure the implementation of the cybersecurity requirements and practices when using the organization’s social media accounts</t>
+  </si>
+  <si>
+    <t>In addition to the controls within subdomain 2-1 in the ECC, cybersecurity requirements
+for managing infromation and technology assets must include at least the following:
+2-1-1-1 Identifying and inventorying organization’s social media accounts, and
+information and technology assets related to them, and updating them at
+least once, every year</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>سياسات وإجراءات األمن السيرباي</t>
+  </si>
+  <si>
+    <t>)Procedures and Policies Cybersecurity )</t>
+  </si>
+  <si>
+    <t>دارة مخاطر األمن السيرباي</t>
+  </si>
+  <si>
+    <t>Management Risk Cybersecurity)</t>
+  </si>
+  <si>
+    <t>ألمن السيرباين املتعلق باملوارد البرشية</t>
+  </si>
+  <si>
+    <t>s Human in Cybersecurity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برمج توعية وتدريب الامن السيبراني </t>
+  </si>
+  <si>
+    <t xml:space="preserve">)Training and Awareness Cybersecurity
+Program)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إدارة الوصول </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ement Asset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">إدارة هوايات الدخول و الصلاحيات </t>
+  </si>
+  <si>
+    <t>t Access and Identity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جماية الأنظمة و الأجهزة معالجة المعلومات </t>
+  </si>
+  <si>
+    <t>a Processing and System Information
+Protection cilities)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">امن الأجهزة المحمولة </t>
+  </si>
+  <si>
+    <t>y Device Mobile)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+باإلضافــة للضوابــط الفرعيــة ضمــن الضابــط 3-7-2 يف الضوابــط األساســية لألمــن الســيرباين،
+يجـب أن تغطـي متطلبـات األمـن السـيرباين لحاميـة البيانـات واملعلومـات لحسـابات التواصـل
+االجتامعــي للجهــة، بحــد أدىن، مايــي:
+1-1-5-2 يجــب أن ال تحتــوي األصــول التقنيــة الخاصــة بحســابات التواصــل االجتامعــي
+للجهــة عــى بيانــات مصنفــة، حســب الترشيعــات ذات العالقــة.
+</t>
+  </si>
+  <si>
+    <t>In addition to the subcontrols in ECC control 2-7-3, cybersecurity requirements for protecting and handling data and information for organization’s social media accounts must
+include at least the following:
+2-5-1-1 Technology assets for management of organization’s social media accounts must not contain classified data, per relevant regulations.</t>
+  </si>
+  <si>
+    <t>حامية البيانات واملعلومات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إدارة السجلات و الاحداث ومراقبة الامن السيبراني </t>
+  </si>
+  <si>
+    <t>Cybersecurity Events Logs and Monitoring Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In addition to the subcontrols in ECC control 2-12-3, cybersecurity requirements for event
+logs and monitoring management for organization’s social media accounts and technology
+assets related to them must include at least the following:
+2-6-1-1 Activating all notifications and cybersecurity alerts for organization’s social media accounts and cybersecurity events logs on related technology
+assets.
+2-6-1-2 Following organization’s social media accounts and monitoring them
+to ensure that they do not post any unauthorized content, or login any
+unauthorized access.
+2-6-1-3 Monitoring social media networks to ensure the organization is not being
+impersonated.
+2-6-1-4 Automated monitoring for any change in the accounts pattern, indicators
+of compromise, or the publication of any unauthorized content or impersonation of the organization.
+</t>
+  </si>
+  <si>
+    <t>باإلضافــة للضوابــط الفرعيــة ضمــن الضابــط 3-12-2 يف الضوابــط األساســية لألمــن الســيرباين،
+يجـب أن تغطـي متطلبـات إدارة سـجالت األحـداث، ومراقبـة األمـن السـيرباين لحسـابات التواصـل
+االجتامعـي للجهـة واألصـول التقنيـة التابعـة لهـا، بحـد أدىن، مايـي:
+1-1-6-2 تفعيـل جميـع اإلشـعارات وتنبيهـات األمـن السـيرباين الخاصة بحسـابات التواصل
+االجتامعـي وسـجالت األحـداث )Logs Event )الخاصـة باألمـن السـيرباين عـى
+األصـول التقنيـة الخاصـة بحسـابات التواصـل االجتامعـي.
+2-1-6-2 متابعــة حســابات التواصــل االجتامعــي و مراقبتهــا للتأكــد مــن عــدم نــر أي
+محتــوى غــر مــرح، أو تســجيل أي دخــول غــر مــرح.
+3-1-6-2 متابعـة شـبكات التواصـل االجتامعـي ومراقبتهـا للتأكـد مـن عـدم انتحـال هويـة
+الجهة.
+4-1-6-2 املراقبــة اآلليــة ألي تغيــر يف منــط الحســابات أو مــؤرشات اخــراق أو نــر أي
+محتـوى غـر مـرح أو انتحـال هويـة الجهـة</t>
+  </si>
+  <si>
+    <t>n Threat and Incident Cybersecurity
+agement</t>
+  </si>
+  <si>
+    <t>باإلضافـة للضوابـط الفرعيـة ضمـن الضابـط 3-13-2 يف الضوابـط األساسـية لألمـن السـيرباين، يجب
+أن تغطـي متطلبـات إدارة حـوادث وتهديـدات األمـن السـيرباين يف الجهـة، بحـد أدىن، ماييل:
+1-1-7-2 وضــع خطــة اســتعادة حســابات التواصــل االجتامعــي والتعامــل مــع الحــوادث
+الســيربانية.</t>
+  </si>
+  <si>
+    <t>In addition to the subcontrols within control 2-13-3 in ECC, cybersecurity requirements
+for incident and threat management in the organization must include at least the following:
+2-7-1-1 Developing a plan to recover the organization’s social media accounts and
+to deal with cyber incidents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الامن السيبراني المتعلق بالاطراف الخارجية </t>
+  </si>
+  <si>
+    <t>y Party-Third</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يجــب تقييــم مــدى الحاجــة الســتخدام خدمــات إدارة حســابات التواصــل االجتامعــي )social
+management media )واملراقبـة اآلليـة لحسـابات التواصـل االجتامعـي أو لحاميـة هويـة الجهـة
+مـن االنتحـال )protection brand )ومخاطـر األمـن السـيرباين املتعلقـة بهـا. 
+</t>
+  </si>
+  <si>
+    <t>باإلضافــة للضوابــط الفرعيــة ضمــن الضابــط 4 - 1 - 2 يف الضوابــط األساســية لألمــن الســيرباين،
+يجـب أن تغطـي متطلبـات األمـن السـيرباين الخاصـة باسـتخدام خدمـات إدارة حسـابات التواصـل
+االجتامعـي )management media social )واملراقبـة اآلليـة لحسـابات التواصـل االجتامعـي أو
+لحاميـة هويـة الجهـة مـن االنتحـال )protection brand)، بحـد أدىن، مـا يـي:
+1-2-1-3 بنــود املحافظــة عــى رسيــة املعلومــات )Clauses Disclosure-Non )والحــذف
+اآلمـن مـن قبـل الطـرف الخارجـي لبيانـات الجهـة عنـد انتهـاء الخدمـة.
+2-2-1-3 إجراءات التواصل لإلبالغ عن الثغرات ويف حال اكتشاف حادثة أمن سيرباين.
+3-2-1-3 إلــزام الطــرف الخارجــي بتطبيــق متطلبــات وسياســات األمــن الســيرباين لحاميــة
+حســابات التواصــل االجتامعــي للجهــة واملتطلبــات الترشيعيــة والتنظيميــة ذات
+العالقــة.</t>
+  </si>
+  <si>
+    <t>A need assessment for the use of social media management, automated monitoring or
+brand protection services along with associcated cybersecurity risks must be conducted</t>
+  </si>
+  <si>
+    <t>In addition to the subcontrols within control 4-1-2 in ECC, cybersecurity requirements for
+use of social media management, automated monitoring or brand protection services in
+the organization must include at least the following:
+3-1-2-1 Non-disclosure clauses and secure removal of organization’s data by the
+third-party upon service termination.
+3-1-2-2 Communication procedures to report vulnerabilities and cyber incidents.
+3-1-2-3 Requirments for the third-party to comply with cybersecurity requirements and policies to protect organizations’ social media accounts, and
+related laws and regulatio</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>348</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -4371,27 +4785,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48666E6-5A62-4559-B66C-3E43B21415C9}">
-  <dimension ref="A1:I334"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I74"/>
+    <sheetView tabSelected="1" topLeftCell="A342" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F354" sqref="F354"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="25.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.8984375" style="1"/>
+    <col min="2" max="2" width="25.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="255.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="41.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="255.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4420,7 +4834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>860</v>
       </c>
@@ -4443,7 +4857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>863</v>
       </c>
@@ -4466,7 +4880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>865</v>
       </c>
@@ -4489,7 +4903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>867</v>
       </c>
@@ -4518,7 +4932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>868</v>
       </c>
@@ -4541,7 +4955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>871</v>
       </c>
@@ -4564,7 +4978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>873</v>
       </c>
@@ -4587,7 +5001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>875</v>
       </c>
@@ -4610,7 +5024,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>876</v>
       </c>
@@ -4633,7 +5047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>879</v>
       </c>
@@ -4656,7 +5070,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>881</v>
       </c>
@@ -4679,7 +5093,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>883</v>
       </c>
@@ -4702,7 +5116,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>885</v>
       </c>
@@ -4725,7 +5139,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>886</v>
       </c>
@@ -4748,7 +5162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>889</v>
       </c>
@@ -4771,7 +5185,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>891</v>
       </c>
@@ -4794,7 +5208,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>892</v>
       </c>
@@ -4817,7 +5231,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>895</v>
       </c>
@@ -4840,7 +5254,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>897</v>
       </c>
@@ -4863,7 +5277,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>899</v>
       </c>
@@ -4886,7 +5300,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>900</v>
       </c>
@@ -4909,7 +5323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>901</v>
       </c>
@@ -4932,7 +5346,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>902</v>
       </c>
@@ -4955,7 +5369,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>903</v>
       </c>
@@ -4978,7 +5392,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>905</v>
       </c>
@@ -5001,7 +5415,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>906</v>
       </c>
@@ -5024,7 +5438,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>909</v>
       </c>
@@ -5047,7 +5461,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>911</v>
       </c>
@@ -5070,7 +5484,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>912</v>
       </c>
@@ -5093,7 +5507,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>913</v>
       </c>
@@ -5116,7 +5530,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>915</v>
       </c>
@@ -5139,7 +5553,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>916</v>
       </c>
@@ -5162,7 +5576,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>917</v>
       </c>
@@ -5185,7 +5599,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>918</v>
       </c>
@@ -5208,7 +5622,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>919</v>
       </c>
@@ -5231,7 +5645,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>920</v>
       </c>
@@ -5254,7 +5668,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>922</v>
       </c>
@@ -5277,7 +5691,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>923</v>
       </c>
@@ -5300,7 +5714,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>926</v>
       </c>
@@ -5323,7 +5737,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>928</v>
       </c>
@@ -5352,7 +5766,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>929</v>
       </c>
@@ -5375,7 +5789,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>932</v>
       </c>
@@ -5398,7 +5812,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>934</v>
       </c>
@@ -5421,7 +5835,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>936</v>
       </c>
@@ -5450,7 +5864,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>937</v>
       </c>
@@ -5473,7 +5887,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>940</v>
       </c>
@@ -5496,7 +5910,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>942</v>
       </c>
@@ -5519,7 +5933,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>944</v>
       </c>
@@ -5542,7 +5956,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>945</v>
       </c>
@@ -5565,7 +5979,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>946</v>
       </c>
@@ -5588,7 +6002,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>948</v>
       </c>
@@ -5611,7 +6025,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>949</v>
       </c>
@@ -5634,7 +6048,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>950</v>
       </c>
@@ -5657,7 +6071,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>952</v>
       </c>
@@ -5680,7 +6094,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>954</v>
       </c>
@@ -5709,7 +6123,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>955</v>
       </c>
@@ -5732,7 +6146,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>958</v>
       </c>
@@ -5755,7 +6169,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>960</v>
       </c>
@@ -5778,7 +6192,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>962</v>
       </c>
@@ -5801,7 +6215,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>963</v>
       </c>
@@ -5824,7 +6238,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>964</v>
       </c>
@@ -5847,7 +6261,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>965</v>
       </c>
@@ -5870,7 +6284,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>966</v>
       </c>
@@ -5893,7 +6307,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>968</v>
       </c>
@@ -5916,7 +6330,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>969</v>
       </c>
@@ -5939,7 +6353,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>970</v>
       </c>
@@ -5962,7 +6376,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>971</v>
       </c>
@@ -5985,7 +6399,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>973</v>
       </c>
@@ -6014,7 +6428,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>974</v>
       </c>
@@ -6034,7 +6448,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>975</v>
       </c>
@@ -6057,7 +6471,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>978</v>
       </c>
@@ -6080,7 +6494,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>980</v>
       </c>
@@ -6103,7 +6517,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>982</v>
       </c>
@@ -6126,7 +6540,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>984</v>
       </c>
@@ -6149,7 +6563,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>986</v>
       </c>
@@ -6172,7 +6586,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>988</v>
       </c>
@@ -6195,7 +6609,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>989</v>
       </c>
@@ -6218,7 +6632,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>992</v>
       </c>
@@ -6241,7 +6655,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>994</v>
       </c>
@@ -6264,7 +6678,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>996</v>
       </c>
@@ -6287,7 +6701,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>997</v>
       </c>
@@ -6310,7 +6724,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>998</v>
       </c>
@@ -6333,7 +6747,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>999</v>
       </c>
@@ -6356,7 +6770,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>1000</v>
       </c>
@@ -6379,7 +6793,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>1001</v>
       </c>
@@ -6402,7 +6816,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>1003</v>
       </c>
@@ -6431,7 +6845,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>1004</v>
       </c>
@@ -6454,7 +6868,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>1007</v>
       </c>
@@ -6477,7 +6891,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>1009</v>
       </c>
@@ -6500,7 +6914,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>1011</v>
       </c>
@@ -6523,7 +6937,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1012</v>
       </c>
@@ -6546,7 +6960,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>1013</v>
       </c>
@@ -6569,7 +6983,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>1014</v>
       </c>
@@ -6592,7 +7006,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>1015</v>
       </c>
@@ -6615,7 +7029,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>1017</v>
       </c>
@@ -6644,7 +7058,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>1018</v>
       </c>
@@ -6667,7 +7081,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>1021</v>
       </c>
@@ -6690,7 +7104,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>1023</v>
       </c>
@@ -6713,7 +7127,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>1025</v>
       </c>
@@ -6736,7 +7150,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>1026</v>
       </c>
@@ -6759,7 +7173,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>1027</v>
       </c>
@@ -6782,7 +7196,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>1028</v>
       </c>
@@ -6805,7 +7219,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>1029</v>
       </c>
@@ -6828,7 +7242,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>1030</v>
       </c>
@@ -6851,7 +7265,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>1032</v>
       </c>
@@ -6880,7 +7294,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>1033</v>
       </c>
@@ -6903,7 +7317,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>1036</v>
       </c>
@@ -6926,7 +7340,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>1038</v>
       </c>
@@ -6949,7 +7363,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>1040</v>
       </c>
@@ -6972,7 +7386,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>1041</v>
       </c>
@@ -6995,7 +7409,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>1042</v>
       </c>
@@ -7018,7 +7432,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>1043</v>
       </c>
@@ -7041,7 +7455,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>1044</v>
       </c>
@@ -7064,7 +7478,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>1045</v>
       </c>
@@ -7087,7 +7501,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>1046</v>
       </c>
@@ -7110,7 +7524,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>1047</v>
       </c>
@@ -7133,7 +7547,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>1048</v>
       </c>
@@ -7156,7 +7570,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>1050</v>
       </c>
@@ -7185,7 +7599,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>1051</v>
       </c>
@@ -7208,7 +7622,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>1054</v>
       </c>
@@ -7231,7 +7645,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>1056</v>
       </c>
@@ -7254,7 +7668,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>1058</v>
       </c>
@@ -7277,7 +7691,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>1059</v>
       </c>
@@ -7300,7 +7714,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>1060</v>
       </c>
@@ -7323,7 +7737,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>1061</v>
       </c>
@@ -7346,7 +7760,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>1062</v>
       </c>
@@ -7369,7 +7783,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>1064</v>
       </c>
@@ -7398,7 +7812,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>1065</v>
       </c>
@@ -7421,7 +7835,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>1068</v>
       </c>
@@ -7444,7 +7858,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>1070</v>
       </c>
@@ -7467,7 +7881,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>1072</v>
       </c>
@@ -7490,7 +7904,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>1073</v>
       </c>
@@ -7513,7 +7927,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>1074</v>
       </c>
@@ -7536,7 +7950,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>1075</v>
       </c>
@@ -7559,7 +7973,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>1077</v>
       </c>
@@ -7588,7 +8002,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>1078</v>
       </c>
@@ -7611,7 +8025,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>1081</v>
       </c>
@@ -7634,7 +8048,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>1083</v>
       </c>
@@ -7657,7 +8071,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>1085</v>
       </c>
@@ -7680,7 +8094,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>1086</v>
       </c>
@@ -7703,7 +8117,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>1087</v>
       </c>
@@ -7726,7 +8140,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>1088</v>
       </c>
@@ -7749,7 +8163,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>1090</v>
       </c>
@@ -7778,7 +8192,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>1091</v>
       </c>
@@ -7801,7 +8215,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>1094</v>
       </c>
@@ -7824,7 +8238,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>1096</v>
       </c>
@@ -7847,7 +8261,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>1098</v>
       </c>
@@ -7870,7 +8284,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>1099</v>
       </c>
@@ -7893,7 +8307,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>1100</v>
       </c>
@@ -7916,7 +8330,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>1101</v>
       </c>
@@ -7939,7 +8353,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>1103</v>
       </c>
@@ -7968,7 +8382,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>1104</v>
       </c>
@@ -7991,7 +8405,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>1107</v>
       </c>
@@ -8014,7 +8428,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>1109</v>
       </c>
@@ -8037,7 +8451,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>1111</v>
       </c>
@@ -8060,7 +8474,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>1112</v>
       </c>
@@ -8083,7 +8497,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>1113</v>
       </c>
@@ -8106,7 +8520,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>1114</v>
       </c>
@@ -8129,7 +8543,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>1115</v>
       </c>
@@ -8152,7 +8566,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>1116</v>
       </c>
@@ -8175,7 +8589,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>1118</v>
       </c>
@@ -8204,7 +8618,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>1119</v>
       </c>
@@ -8227,7 +8641,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>1122</v>
       </c>
@@ -8250,7 +8664,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>1124</v>
       </c>
@@ -8273,7 +8687,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>1126</v>
       </c>
@@ -8296,7 +8710,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>1127</v>
       </c>
@@ -8319,7 +8733,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>1128</v>
       </c>
@@ -8342,7 +8756,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>1130</v>
       </c>
@@ -8371,7 +8785,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>1131</v>
       </c>
@@ -8394,7 +8808,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>1134</v>
       </c>
@@ -8417,7 +8831,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>1136</v>
       </c>
@@ -8440,7 +8854,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>1138</v>
       </c>
@@ -8463,7 +8877,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>1139</v>
       </c>
@@ -8486,7 +8900,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>1140</v>
       </c>
@@ -8509,7 +8923,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>1141</v>
       </c>
@@ -8532,7 +8946,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>1142</v>
       </c>
@@ -8555,7 +8969,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>1143</v>
       </c>
@@ -8578,7 +8992,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>1145</v>
       </c>
@@ -8607,7 +9021,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>1146</v>
       </c>
@@ -8630,7 +9044,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>1148</v>
       </c>
@@ -8653,7 +9067,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>1149</v>
       </c>
@@ -8676,7 +9090,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>1150</v>
       </c>
@@ -8699,7 +9113,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>1151</v>
       </c>
@@ -8722,7 +9136,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>1152</v>
       </c>
@@ -8745,7 +9159,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>1153</v>
       </c>
@@ -8768,7 +9182,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>1154</v>
       </c>
@@ -8791,7 +9205,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>1155</v>
       </c>
@@ -8814,7 +9228,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>1156</v>
       </c>
@@ -8843,7 +9257,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>1157</v>
       </c>
@@ -8866,7 +9280,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>1159</v>
       </c>
@@ -8889,7 +9303,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>1160</v>
       </c>
@@ -8912,7 +9326,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>1161</v>
       </c>
@@ -8935,7 +9349,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>1162</v>
       </c>
@@ -8958,7 +9372,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>1163</v>
       </c>
@@ -8981,7 +9395,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>1164</v>
       </c>
@@ -9004,7 +9418,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>1165</v>
       </c>
@@ -9027,7 +9441,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>1166</v>
       </c>
@@ -9050,7 +9464,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>1167</v>
       </c>
@@ -9079,7 +9493,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>1168</v>
       </c>
@@ -9102,7 +9516,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>1170</v>
       </c>
@@ -9125,7 +9539,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>1171</v>
       </c>
@@ -9148,7 +9562,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>1172</v>
       </c>
@@ -9171,7 +9585,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>1173</v>
       </c>
@@ -9194,7 +9608,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>1174</v>
       </c>
@@ -9217,7 +9631,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>1175</v>
       </c>
@@ -9240,7 +9654,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>1176</v>
       </c>
@@ -9263,7 +9677,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>1177</v>
       </c>
@@ -9286,7 +9700,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>1178</v>
       </c>
@@ -9315,7 +9729,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>1179</v>
       </c>
@@ -9335,7 +9749,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>1180</v>
       </c>
@@ -9358,7 +9772,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>1183</v>
       </c>
@@ -9381,7 +9795,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>1185</v>
       </c>
@@ -9404,7 +9818,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>1187</v>
       </c>
@@ -9427,7 +9841,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>1188</v>
       </c>
@@ -9450,7 +9864,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>1189</v>
       </c>
@@ -9473,7 +9887,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>1190</v>
       </c>
@@ -9496,7 +9910,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>1192</v>
       </c>
@@ -9525,7 +9939,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>1193</v>
       </c>
@@ -9545,7 +9959,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>1194</v>
       </c>
@@ -9568,7 +9982,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>1197</v>
       </c>
@@ -9591,7 +10005,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>1199</v>
       </c>
@@ -9614,7 +10028,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>1200</v>
       </c>
@@ -9637,7 +10051,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>1201</v>
       </c>
@@ -9660,7 +10074,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>1202</v>
       </c>
@@ -9683,7 +10097,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>1204</v>
       </c>
@@ -9706,7 +10120,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>1205</v>
       </c>
@@ -9729,7 +10143,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>1206</v>
       </c>
@@ -9752,7 +10166,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>1208</v>
       </c>
@@ -9781,7 +10195,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>1209</v>
       </c>
@@ -9804,7 +10218,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>1212</v>
       </c>
@@ -9827,7 +10241,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>1214</v>
       </c>
@@ -9850,7 +10264,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>1216</v>
       </c>
@@ -9873,7 +10287,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>1217</v>
       </c>
@@ -9896,7 +10310,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>1218</v>
       </c>
@@ -9919,7 +10333,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>1219</v>
       </c>
@@ -9942,7 +10356,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>1220</v>
       </c>
@@ -9971,7 +10385,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>1221</v>
       </c>
@@ -9991,7 +10405,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>1222</v>
       </c>
@@ -10014,7 +10428,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>1225</v>
       </c>
@@ -10037,7 +10451,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>1227</v>
       </c>
@@ -10060,7 +10474,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>1229</v>
       </c>
@@ -10083,7 +10497,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>1230</v>
       </c>
@@ -10106,7 +10520,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>1231</v>
       </c>
@@ -10129,7 +10543,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>1232</v>
       </c>
@@ -10152,7 +10566,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>1233</v>
       </c>
@@ -10175,7 +10589,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>1234</v>
       </c>
@@ -10198,7 +10612,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>1235</v>
       </c>
@@ -10221,7 +10635,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>1236</v>
       </c>
@@ -10244,7 +10658,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>1237</v>
       </c>
@@ -10267,7 +10681,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>1238</v>
       </c>
@@ -10290,7 +10704,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>1239</v>
       </c>
@@ -10313,7 +10727,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>1241</v>
       </c>
@@ -10342,7 +10756,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>1242</v>
       </c>
@@ -10362,7 +10776,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>1243</v>
       </c>
@@ -10382,7 +10796,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>1244</v>
       </c>
@@ -10405,7 +10819,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>1245</v>
       </c>
@@ -10428,7 +10842,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>1246</v>
       </c>
@@ -10451,7 +10865,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>1247</v>
       </c>
@@ -10474,7 +10888,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>1248</v>
       </c>
@@ -10497,7 +10911,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>1249</v>
       </c>
@@ -10520,7 +10934,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>1250</v>
       </c>
@@ -10543,7 +10957,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>1251</v>
       </c>
@@ -10566,7 +10980,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>1252</v>
       </c>
@@ -10589,7 +11003,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>1253</v>
       </c>
@@ -10612,7 +11026,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>1254</v>
       </c>
@@ -10635,7 +11049,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>1255</v>
       </c>
@@ -10658,7 +11072,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>1256</v>
       </c>
@@ -10681,7 +11095,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>1257</v>
       </c>
@@ -10704,7 +11118,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>1258</v>
       </c>
@@ -10727,7 +11141,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>1259</v>
       </c>
@@ -10750,7 +11164,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>1260</v>
       </c>
@@ -10770,7 +11184,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10793,7 +11207,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>1262</v>
       </c>
@@ -10816,7 +11230,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>1263</v>
       </c>
@@ -10839,7 +11253,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>1264</v>
       </c>
@@ -10862,7 +11276,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>1265</v>
       </c>
@@ -10885,7 +11299,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>1266</v>
       </c>
@@ -10908,7 +11322,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>1267</v>
       </c>
@@ -10931,7 +11345,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>1268</v>
       </c>
@@ -10954,7 +11368,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>1269</v>
       </c>
@@ -10977,7 +11391,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>1270</v>
       </c>
@@ -11000,7 +11414,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>1271</v>
       </c>
@@ -11023,7 +11437,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>1272</v>
       </c>
@@ -11046,7 +11460,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>1273</v>
       </c>
@@ -11069,7 +11483,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>1274</v>
       </c>
@@ -11092,7 +11506,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>1275</v>
       </c>
@@ -11115,7 +11529,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>1276</v>
       </c>
@@ -11138,7 +11552,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>1277</v>
       </c>
@@ -11161,7 +11575,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>1278</v>
       </c>
@@ -11184,7 +11598,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>1279</v>
       </c>
@@ -11207,7 +11621,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>1280</v>
       </c>
@@ -11230,7 +11644,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>1281</v>
       </c>
@@ -11253,7 +11667,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>1282</v>
       </c>
@@ -11276,7 +11690,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>1283</v>
       </c>
@@ -11299,7 +11713,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>1284</v>
       </c>
@@ -11322,7 +11736,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>1285</v>
       </c>
@@ -11345,7 +11759,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>1286</v>
       </c>
@@ -11368,7 +11782,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>1287</v>
       </c>
@@ -11391,7 +11805,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>1288</v>
       </c>
@@ -11414,7 +11828,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>1289</v>
       </c>
@@ -11437,7 +11851,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>1290</v>
       </c>
@@ -11460,7 +11874,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>1291</v>
       </c>
@@ -11483,7 +11897,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>1292</v>
       </c>
@@ -11506,7 +11920,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>1293</v>
       </c>
@@ -11529,7 +11943,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>1294</v>
       </c>
@@ -11552,7 +11966,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>1295</v>
       </c>
@@ -11572,7 +11986,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>1296</v>
       </c>
@@ -11595,7 +12009,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>1297</v>
       </c>
@@ -11618,7 +12032,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>1298</v>
       </c>
@@ -11641,7 +12055,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>1299</v>
       </c>
@@ -11664,7 +12078,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>1300</v>
       </c>
@@ -11687,7 +12101,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>1301</v>
       </c>
@@ -11710,7 +12124,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>1302</v>
       </c>
@@ -11733,7 +12147,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>1303</v>
       </c>
@@ -11756,7 +12170,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>1304</v>
       </c>
@@ -11779,7 +12193,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>1305</v>
       </c>
@@ -11802,7 +12216,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>1306</v>
       </c>
@@ -11825,7 +12239,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>1307</v>
       </c>
@@ -11848,7 +12262,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>1308</v>
       </c>
@@ -11871,7 +12285,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>1309</v>
       </c>
@@ -11894,7 +12308,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>1310</v>
       </c>
@@ -11917,7 +12331,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>1311</v>
       </c>
@@ -11940,7 +12354,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>1312</v>
       </c>
@@ -11963,7 +12377,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>1313</v>
       </c>
@@ -11986,7 +12400,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>1314</v>
       </c>
@@ -12009,7 +12423,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>1315</v>
       </c>
@@ -12032,7 +12446,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>1316</v>
       </c>
@@ -12055,7 +12469,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>1317</v>
       </c>
@@ -12078,7 +12492,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>1318</v>
       </c>
@@ -12101,7 +12515,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>1319</v>
       </c>
@@ -12124,7 +12538,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>1320</v>
       </c>
@@ -12147,7 +12561,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>1321</v>
       </c>
@@ -12170,7 +12584,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>1322</v>
       </c>
@@ -12191,6 +12605,426 @@
       </c>
       <c r="I334" s="1" t="s">
         <v>859</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H335" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I335" s="2" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G336" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H336" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="I336" s="2" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G337" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="H337" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="I337" s="2" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" ht="234.6" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H338" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I338" s="2" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F339" s="2"/>
+      <c r="G339" s="2"/>
+      <c r="H339" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I339" s="2" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G340" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H340" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I340" s="2" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" ht="289.8" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G341" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H341" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I341" s="2" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F342"/>
+      <c r="H342" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I342" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" ht="207" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G343" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H343" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I343" s="2" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G344" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H344" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I344" s="2" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G345" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H345" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I345" s="2" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" ht="179.4" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G346" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H346" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="I346" s="2" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G347" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H347" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I347" s="2" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H348" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I348" s="2" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" ht="138" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H349" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="I349" s="2" t="s">
+        <v>1386</v>
       </c>
     </row>
   </sheetData>
